--- a/biology/Zoologie/Gigantoscorpio_willsi/Gigantoscorpio_willsi.xlsx
+++ b/biology/Zoologie/Gigantoscorpio_willsi/Gigantoscorpio_willsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gigantoscorpio willsi
-Gigantoscorpio est un genre éteint de grands scorpions appartenant à la famille éponyme et également éteinte des gigantoscorpionidés, qui ont vécu durant le Carbonifère (Mississippien), il y a entre 345 et 342,8 millions d'années dans ce qui est aujourd'hui l'Écosse[1],[2],[3]. Le genre compte une seule espèce connue, Gigantoscorpio willsi, décrite par le paléontologue norvegien Leif Størmer en 1963[1].
+Gigantoscorpio est un genre éteint de grands scorpions appartenant à la famille éponyme et également éteinte des gigantoscorpionidés, qui ont vécu durant le Carbonifère (Mississippien), il y a entre 345 et 342,8 millions d'années dans ce qui est aujourd'hui l'Écosse. Le genre compte une seule espèce connue, Gigantoscorpio willsi, décrite par le paléontologue norvegien Leif Størmer en 1963.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le spécimen type est catalogué au musée d'histoire naturelle de Londres sous le nom de code BMNH 42706 et 42707. Il est constitué d'un exosquelette fragmentaire trouvé à Glencartholm en Écosse[1],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen type est catalogué au musée d'histoire naturelle de Londres sous le nom de code BMNH 42706 et 42707. Il est constitué d'un exosquelette fragmentaire trouvé à Glencartholm en Écosse,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gigantoscorpio initialement considéré comme mesurant 40 centimètres de longueur, en raison de l'époque à laquelle l'animal a vécu[5], a vu sa taille revue à la baisse à 28 centimètres[6] par des études ultérieures. C'est l'un des plus grands scorpions connus à ce jour. Il reste cependant beaucoup plus petits que les genres Brontoscorpio et Pulmonoscorpius qui comptent des fossiles d'une taille de 70 à 90 centimètres de long[7],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gigantoscorpio initialement considéré comme mesurant 40 centimètres de longueur, en raison de l'époque à laquelle l'animal a vécu, a vu sa taille revue à la baisse à 28 centimètres par des études ultérieures. C'est l'un des plus grands scorpions connus à ce jour. Il reste cependant beaucoup plus petits que les genres Brontoscorpio et Pulmonoscorpius qui comptent des fossiles d'une taille de 70 à 90 centimètres de long,.
 </t>
         </is>
       </c>
